--- a/biology/Botanique/Bagnoli_Friularo/Bagnoli_Friularo.xlsx
+++ b/biology/Botanique/Bagnoli_Friularo/Bagnoli_Friularo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bagnoli friularo ou friularo de bagnoli est un vin DOCG de Vénétie. 
 Il est produit dans les communes d’Agna, Arre, Bagnoli di Sopra, Battaglia Terme, Bovolenta, Candiana, Due Carrare, Cartura, Conselve, Monselice, Pernumia, San Pietro Viminario, Terrassa Padovana et Tribano dans la province de Padoue.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n’existe pas d’indication précise concernant la date d’introduction de Friularo dans cette aire de répartition. Certains chercheurs reconnaissent dans la dénomination « Friularo » (en patois « Frigoearo ») la racine latine « frigus » :  qui signifie « froid » et la terminaison « aro » se traduisant par « celui qui fait ». Cette dénomination pourrait se référer à la vendange tardive qui est pratiquée depuis toujours dans cette région.
 Le premier document concernant les vins Bagnoli est l’acte de donation du marquis du Domaine de Bagnoli à l’évêque de Padoue de 954 apr. J. - C., tandis que le premier document se référant explicitement à « Friularo di Bagnoli » est un manuscrit de 1774 qui établit la liste des cépages cultivés dans la région, accompagnés de leur prix du marché. Le Friularo se présente comme le cépage à la fois le plus coûteux et le plus populaire.
@@ -548,13 +562,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Géologie
-La partie nord, et plus précisément les communes de Battaglia Terme et Monselice présentent des sols à l’origine desquels est la désagrégation des roches volcaniques. Ainsi, ils se caractérisent par une bonne structure. En outre, ces sols sont très bien drainés et riches en minéraux et en oligoéléments.
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie nord, et plus précisément les communes de Battaglia Terme et Monselice présentent des sols à l’origine desquels est la désagrégation des roches volcaniques. Ainsi, ils se caractérisent par une bonne structure. En outre, ces sols sont très bien drainés et riches en minéraux et en oligoéléments.
 Les zones de plaines d’autres communes se caractérisent par la richesse en minéraux due aux sédiments des fleuves Adige, Bacchiglione et Brenta. Les sols de ce type présentent un pourcentage plus élevé de limon et de matière organique que les sols non alluvionnaires. 
-Climatologie
-Le climat de la région est tempéré : les hivers sont doux et les étés chauds et secs.
-L’aire de répartition est caractérisée par des vents provenant du nord-est et, vu la proximité de la mer, par des brises marines et le vent du nord appelé « Bora ». Ces conditions climatiques empêchent la stagnation de l’humidité, surtout pendant les mois d’été, ce qui est un facteur très positif. Au cours de la phase de maturation, les différences de température considérables suscitent l’augmentation des substances phénoliques et de la couleur de la baie.
-La pluviosité moyenne annuelle varie entre 700 et 900 mm et elle atteint son pic au printemps et à l’automne.
 </t>
         </is>
       </c>
@@ -580,12 +595,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Encépagement</t>
+          <t>Situation géographique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dans la production du vin bagnoli friularo, est principalement le cépage raboso piave, à 90 %. Toutefois, les cépages à baies noires, aptes à la culture dans la province de Padoue, peuvent être également utilisés dans une mesure qui n’excède pas 10%.
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le climat de la région est tempéré : les hivers sont doux et les étés chauds et secs.
+L’aire de répartition est caractérisée par des vents provenant du nord-est et, vu la proximité de la mer, par des brises marines et le vent du nord appelé « Bora ». Ces conditions climatiques empêchent la stagnation de l’humidité, surtout pendant les mois d’été, ce qui est un facteur très positif. Au cours de la phase de maturation, les différences de température considérables suscitent l’augmentation des substances phénoliques et de la couleur de la baie.
+La pluviosité moyenne annuelle varie entre 700 et 900 mm et elle atteint son pic au printemps et à l’automne.
 </t>
         </is>
       </c>
@@ -611,10 +634,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la production du vin bagnoli friularo, est principalement le cépage raboso piave, à 90 %. Toutefois, les cépages à baies noires, aptes à la culture dans la province de Padoue, peuvent être également utilisés dans une mesure qui n’excède pas 10%.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bagnoli_Friularo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bagnoli_Friularo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Viticulture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les raisins aptes à produire le bagnoli friularo doivent être cultivés sur les terrains d'origine sédimentaire alluviale et sur les terrains contenant les concrétions calcaires. Dans la culture des cépages sont admises la taille en espalier et la taille en cordon de Royat. 
 Toute pratique de forçage est interdite, tandis que l’irrigation secondaire est admise. Les vignobles se caractérisent par une densité de plantation restreinte (2 500 pieds / hectare).
@@ -626,37 +684,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bagnoli_Friularo</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bagnoli_Friularo</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Vinification</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le taux d'alcool minimum du vin  11,50 % vol, son acidité totale minimale  5,5 g/L, et son taux de résidu sec, au minimum  24,0 g/L.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -678,16 +705,86 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Vinification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taux d'alcool minimum du vin  11,50 % vol, son acidité totale minimale  5,5 g/L, et son taux de résidu sec, au minimum  24,0 g/L.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bagnoli_Friularo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bagnoli_Friularo</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Dégustation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vin est caractérisé par sa couleur rouge rubis lorsque le vin est jeune, évoluant vers le rouge grenat en vieillissant.
 Le bagnoli friularo présente un arôme de fruits rouges tels que la cerise et la prune. Lorsque ce vin mûrit, il acquiert l'arôme des fruits sur mûris et fruits à l’eau-de-vie, des épices telles que le cacao, la cannelle et la vanille. À ceux-ci s’ajoute la note « boisée », si le vin vieillit dans des fûts de chêne. 
 En bouche, il a une saveur sèche, pleine, veloutée, intense, évoluant vers l'acidité[Passage contradictoire].
-Gastronomie
-Le Bagnoli Friularo s’associe très bien à la viande rouge, en particulier au gibier, et au chocolat noir[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bagnoli_Friularo</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bagnoli_Friularo</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dégustation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Gastronomie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bagnoli Friularo s’associe très bien à la viande rouge, en particulier au gibier, et au chocolat noir.
 </t>
         </is>
       </c>
